--- a/quizsheets/m9_mada_model_assessment_student.xlsx
+++ b/quizsheets/m9_mada_model_assessment_student.xlsx
@@ -448,7 +448,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The model that fits the original data best is the generally best-performing model.</t>
+          <t>The model that fits the original data best is generally the best-performing model.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>bootstrapping belongs to what category of approaches: A) information criteria, B) sampling, C) forecasting, D) none of those</t>
+          <t>bootstrapping belongs to what category of approaches: A) information criteria, B) resampling, C) forecasting, D) none of those</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
